--- a/biology/Botanique/Begonia_fuchsioides/Begonia_fuchsioides.xlsx
+++ b/biology/Botanique/Begonia_fuchsioides/Begonia_fuchsioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia foliosa var. miniata
 Begonia fuchsioides Hook. est une espèce de plantes de la famille des Begoniaceae.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un bégonia arbustif aux tiges grêles et à petites feuilles dentées. Les fleurs sont rouges et ressemblent à celles d'un fuchsia d'où son nom, toutefois il existe plusieurs cultivars d'aspect variable.
 			Planche botanique de 1847
@@ -549,9 +563,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (8 novembre 2016)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (8 novembre 2016) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia fuchsioides var. floribunda Irmsch.
 variété Begonia fuchsioides var. miniata (Planch. &amp; Linden) C. DC.
 </t>
